--- a/public/store/ImportSampleDMPK.xlsx
+++ b/public/store/ImportSampleDMPK.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAP\public\store\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E1F54-8470-4BD5-9BFA-37D9C9CAAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10308"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Gia công ngoài</t>
   </si>
@@ -98,9 +104,6 @@
     <t>Công</t>
   </si>
   <si>
-    <t>GC_TAG5D_07cho</t>
-  </si>
-  <si>
     <t>Thay áo ghế SiMiLi Phối 5D  xe  07 chỗ</t>
   </si>
   <si>
@@ -126,12 +129,60 @@
   </si>
   <si>
     <t>DONGXE</t>
+  </si>
+  <si>
+    <t>GC_TAG5D_07</t>
+  </si>
+  <si>
+    <t>THOIGIANLAPDAT</t>
+  </si>
+  <si>
+    <t>BAOHANH</t>
+  </si>
+  <si>
+    <t>NHACUNGCAP</t>
+  </si>
+  <si>
+    <t>02 GIỜ</t>
+  </si>
+  <si>
+    <t>10 GIỜ</t>
+  </si>
+  <si>
+    <t>22 GIỜ</t>
+  </si>
+  <si>
+    <t>13 GIỜ</t>
+  </si>
+  <si>
+    <t>14 GIỜ</t>
+  </si>
+  <si>
+    <t>02 năm</t>
+  </si>
+  <si>
+    <t>10 năm</t>
+  </si>
+  <si>
+    <t>05 năm</t>
+  </si>
+  <si>
+    <t>11 năm</t>
+  </si>
+  <si>
+    <t>03 năm</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH AN TOÀN ABC</t>
+  </si>
+  <si>
+    <t>CN AN GIANG - CÔNG TY ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -218,12 +269,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,10 +294,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -270,6 +320,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,186 +617,242 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11" style="4"/>
-    <col min="9" max="16384" width="11" style="2"/>
+    <col min="6" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="34.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10">
+        <v>440000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>37500</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1250000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3800000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5200000</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="I3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11">
-        <v>440000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>37500</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1250000</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E4" s="10">
+        <v>240000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="I4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10">
+        <v>230000</v>
+      </c>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="G5" s="11">
+        <v>450000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11">
-        <v>3800000</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="12">
-        <v>5200000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11">
-        <v>240000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>500000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11">
-        <v>230000</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>450000</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="G6" s="11">
+        <v>220000</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>220000</v>
-      </c>
-      <c r="H6" s="13">
-        <v>2</v>
+      <c r="I6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -757,16 +866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -774,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -782,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -790,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -798,42 +907,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>13</v>
       </c>

--- a/public/store/ImportSampleDMPK.xlsx
+++ b/public/store/ImportSampleDMPK.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAP\public\store\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E1F54-8470-4BD5-9BFA-37D9C9CAAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Gia công ngoài</t>
   </si>
@@ -177,16 +171,20 @@
   </si>
   <si>
     <t>CN AN GIANG - CÔNG TY ABC</t>
+  </si>
+  <si>
+    <t>GIATANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -242,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,13 +261,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -298,6 +307,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -617,35 +631,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="3"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="30.25" customWidth="1"/>
-    <col min="11" max="11" width="34.9140625" customWidth="1"/>
+    <col min="11" max="11" width="34.875" customWidth="1"/>
+    <col min="12" max="12" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -679,8 +694,11 @@
       <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -714,8 +732,9 @@
       <c r="K2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -749,8 +768,9 @@
       <c r="K3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -784,8 +804,11 @@
       <c r="K4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -819,8 +842,9 @@
       <c r="K5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,6 +878,10 @@
       <c r="K6" t="s">
         <v>51</v>
       </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -866,16 +894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -883,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -891,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -899,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -907,42 +935,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>13</v>
       </c>

--- a/public/store/ImportSampleDMPK.xlsx
+++ b/public/store/ImportSampleDMPK.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAP\public\store\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A3EC3-EBF4-4E90-8C4F-29E56EB19228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Gia công ngoài</t>
   </si>
@@ -174,12 +185,18 @@
   </si>
   <si>
     <t>GIATANG</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -278,7 +295,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -312,6 +329,9 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -631,36 +651,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.08203125" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="3"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="30.25" customWidth="1"/>
-    <col min="11" max="11" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="34.83203125" customWidth="1"/>
     <col min="12" max="12" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -697,8 +717,11 @@
       <c r="L1" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -733,8 +756,11 @@
         <v>50</v>
       </c>
       <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -769,8 +795,11 @@
         <v>51</v>
       </c>
       <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -807,8 +836,11 @@
       <c r="L4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -843,8 +875,11 @@
         <v>51</v>
       </c>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -879,8 +914,11 @@
         <v>51</v>
       </c>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L7" s="15"/>
     </row>
   </sheetData>
@@ -894,16 +932,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -911,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -919,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -927,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -935,42 +973,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>13</v>
       </c>
